--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/27_Düzce_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/27_Düzce_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0638E9E6-84B3-49AD-8385-8F6EB1CA8B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6ACEF23-360E-4B7E-8DC0-D35DF1DE41F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="678" xr2:uid="{44A3E3C3-7EAE-481A-8B04-1EC26EA7F2A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{BB00DECA-1369-4284-8E81-D1D452A77CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="114" r:id="rId1"/>
@@ -969,17 +969,17 @@
   <cellStyles count="13">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{5F6DF949-50B8-46BA-9A86-0A9C28A1FAD7}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3CC90BF4-33A6-4C9E-BC1B-3C0019403320}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{1C2143EF-AD5F-4647-9F7E-94C865A09458}"/>
-    <cellStyle name="Normal 2 4" xfId="5" xr:uid="{F123ECEB-E4B9-4285-BAE0-5866127BE2AD}"/>
-    <cellStyle name="Normal 3" xfId="6" xr:uid="{ACC6FB33-B68F-48D3-8959-61329D62E0F5}"/>
-    <cellStyle name="Normal 3 2" xfId="7" xr:uid="{EBD5B1E1-577C-4E54-9B64-BEBAB5045AB9}"/>
-    <cellStyle name="Normal 3 2 2" xfId="8" xr:uid="{00C25241-1A85-435C-9FD0-B74EF12D05C5}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="9" xr:uid="{261BD20E-592E-42D2-AC50-99D05A185C79}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="10" xr:uid="{CA454138-D3F4-4DAE-81FB-360BFE18DFB7}"/>
-    <cellStyle name="Not 2" xfId="11" xr:uid="{CC7B37B1-9BE7-4AA6-A361-7819B7C1E535}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="12" xr:uid="{567DC13B-A8BE-495C-988B-BB3E4E510C86}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{B2CD3EB2-76DF-4287-8206-3BFE07474270}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{DCFEE32E-08E1-4D92-B299-B0F107CC8C0A}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{35579086-9B2F-4373-B67C-FCF496670EED}"/>
+    <cellStyle name="Normal 2 4" xfId="5" xr:uid="{DEECCE23-9152-4F3A-9EB7-8F85E9532C9B}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{4BCA1337-1DD5-417D-BE65-9898AA2B7D0B}"/>
+    <cellStyle name="Normal 3 2" xfId="7" xr:uid="{91E73E32-D5EF-44C5-A652-6CDD63A8C833}"/>
+    <cellStyle name="Normal 3 2 2" xfId="8" xr:uid="{D575C946-F355-42E2-AA5B-2A258067E5BF}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="9" xr:uid="{B5B54C9C-819F-449C-8D3D-8629C3B68F62}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="10" xr:uid="{CEC500C1-E275-4446-A230-7382ECF74E51}"/>
+    <cellStyle name="Not 2" xfId="11" xr:uid="{2F305799-D0FE-4332-B2E0-26210B3C970B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="12" xr:uid="{7FAD6227-ED6D-440A-B758-CD7052C09296}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1349,7 +1349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9C51E4-8199-4036-A9C4-EBA0C1D754B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3419CD7F-342A-49E3-B67D-11FF6AAD86BB}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2619,17 +2619,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B51478C0-9346-49F1-8845-33F6D8C509D6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{50887617-9E90-411B-87DE-B350C9CC3DAD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{68387964-21B1-47CA-A8AB-828AB5FB115E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D6708105-7AC2-4D8C-B2AC-8D94FE828403}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{314EA6C9-E585-442A-A011-428E775051F5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8C9BD1F2-4EC2-4749-BD4F-9DC08E449158}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F3FA899-B164-4785-B941-4BF736B29665}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3DB2F48B-C9D8-438F-B270-8B1D2DC369A9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2FA38797-8EA2-4166-AB02-63CEF185D64F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C610FF24-2B42-49D0-8372-380EA67508ED}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8A72860C-C50C-4F4E-A91A-EBF3C3865A02}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0203B455-04DE-4545-8C3F-6A50889A3F9E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{813A94EB-1E5A-4FAD-B1CA-28B10B837E7C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E6251845-6080-4C90-BD14-C487443FBE44}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F8C2EC79-9B6B-4A7C-9D31-A1F7F96D2732}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D7180FB-2768-41E6-9DC2-BF424FFD1C85}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7B3A760B-9C6B-4188-A4A8-7BBEC1450B81}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D41C990C-F029-4ACA-96E7-23DB4C8237D2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B56955C6-1645-4F56-977A-42D2F808FD9E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{946311B2-0E14-493B-99E6-1EE320DBC8F4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{42983561-C06D-4986-865D-FCB000AA533C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CFBC1AE7-9A21-4960-AE27-F2E6F70731ED}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2642,7 +2642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B32A78-3283-4DC1-971C-7BFE8C2AA821}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65A8D21-FFA6-4C5E-B46A-FFF5987211B8}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3901,17 +3901,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{120FC58E-ECAB-491A-9893-07E5639CF020}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5B389D66-8E05-438C-A148-E088768B7C8D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{29B0FE33-B1AB-4F61-9DCD-9F8704023F64}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F35852EB-1F43-4C67-B2EB-B914BBD2C095}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A27D7D43-0453-424C-B3E8-B269CD324BA3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BA197DAB-EE7B-407F-83CD-CEC4E418A914}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{76BB11BB-33D2-4643-979B-80BFB4E315D1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C607FF3B-FBB4-4FF4-A845-E10065B199E3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DAB0644D-4007-4A59-98AF-97FBE330815A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{80681BB6-27A9-483A-8720-6AF6533B02E0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C77A63D2-2103-4440-A425-5F7C162FDE17}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23795D39-E724-4984-ABE8-DBF4E006EF40}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB250A28-EDA3-4439-A5BF-9BE4182A07E3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9F87BE09-6ED8-4BEE-82CD-659AA7AA1A77}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F4AD1038-3CFB-434C-BD0B-F3DC073B57B6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7A886520-9F93-4411-B6AA-233D19F205A6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{12231B73-1A69-4215-8754-C4EC5855D5EF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C235B77E-5F27-4252-9B40-C399F8B94566}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FFF2574C-89E3-4B10-8B30-2B842263AD40}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FA053419-E15C-423C-BCDB-79C8EC0918E7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D119BBA1-7BC5-462A-9F34-F50E1148E6AF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AD8E88DE-AE3A-4703-B812-609D80164FC2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3924,7 +3924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2F8EE9-F4A9-4198-A60D-E2D128B17E0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D47808-F217-4B7F-BD77-5D9E3B011590}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5169,17 +5169,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D909590-63EF-4DF6-9B66-673C193B2ABA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0771624E-DBCF-4E12-BC2A-393BA89A3242}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EC2CE0D7-3EB0-4889-809D-B61E294F0B08}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CE37DAB5-5567-4AF5-AFC5-2CABC77B8A0D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B780516E-AA46-4726-818C-CB2BA6B3ABEF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7C6B7E2B-58F1-4C1F-89BA-72323E5C8B0A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1E519E92-106A-400E-8F6C-2FB83E9D8B18}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{671E8BE9-06BB-4618-A47E-791D72EE1D09}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0240DDE4-BAA7-44F9-B877-05810C567756}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F4BC485A-081A-44C1-AD5A-C8EE38C13622}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF6C0DF7-3143-4A40-80E7-9EBD2844F757}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9FF83D93-6778-4B95-9438-BE28BDAF46AB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FBFA3EA6-2F4A-47AD-A933-89BAF8ED6D96}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{533A016C-5483-4997-990C-A65F4E8A8154}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5539DEC1-E984-4C58-8C50-64B4119D6161}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EA9F60BF-7412-416C-A930-B132F0585878}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E61936C-DDDE-416E-B3EF-66FFFFA9E61B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5C0A488-0B1D-4BC5-9820-0457C05D1415}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{61B7976D-D63F-40DC-B6A8-2B5200FCA7E6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{75E46795-64F4-427D-955D-A8FCEA7917F4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7B78826A-C41D-4F20-9C1B-E218C22D9F04}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{90829960-43D4-4394-9356-64EEC8E12301}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5192,7 +5192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439273CF-8A7A-478B-8744-202C9A99F7F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9A38E4-1896-413E-9189-3CB00F6A68D2}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6437,17 +6437,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF7E4711-8088-4939-AD7E-4D2112AEBB32}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{875BC108-3A83-40A3-8C85-73EAFF89E817}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2EAE44E7-11A4-4A80-9D79-EC589BB1E1A2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{29B4CD37-5B86-475A-85B3-E643E00E2362}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{02191FFA-A15D-4ADC-8A50-0114FAA35214}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5991002E-29EB-4B34-8674-43733C5F0788}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{990064B0-1681-4025-B155-01995C012E13}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{74981A67-9990-41C9-94DE-F08E58D9CE48}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7B41B997-AEDA-4775-8AB9-EC4AF5EDC370}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{46316888-4953-43D1-9912-557A985A50D3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47769D04-AC4A-4F04-BE1C-EDF0DD7A2ACF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E8C5982-29B3-4909-B67C-CFD0588B6FC1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{400E9303-19C4-4079-8574-738F081E96A6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{52134E68-E655-4E32-BC1D-9309B620EDAD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{63AB154A-13DD-4A18-BE3A-9418BC64F08C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EF34E04F-606D-47CD-87B5-D13EB86D1BF6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{608BC219-72BF-4BAA-910D-2CAF8EF2C43F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{76A24E44-1CA6-43EC-83D9-B47B4E4777CB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CF04005B-5FD3-4784-9D81-9C0722EA1681}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5C872485-5513-49DE-8E99-F46400166F34}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C6C3768F-7385-4714-BAEF-847654B85B3D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9A793C3C-811D-4E20-8A0A-6EF3FCBF2217}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6460,7 +6460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72647A81-92D4-43B1-AB69-F1ABB3CDEF74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B469F38D-96D7-4AD8-8ADA-AD42D687FD04}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7723,17 +7723,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1794EBF-1DA7-420F-85BB-85AB6B8BBFFF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3D78906E-45F2-4F8D-8099-726C5C0D2091}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2D31C87E-2E3C-4B06-8746-7CC439086B0E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B3F861D8-EEB1-43CF-989A-06CAE31964F9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6E454988-870E-464D-8116-16680AEE5FAB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0447A9B7-B8D8-4356-9E58-E8527BCEE62A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6F91B80F-D5A2-4869-A79B-E5E51251A83A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E5C53A89-A777-4CEA-90B6-26A2C389B0F0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F6BA2479-2E39-439C-AA9A-7495C4BFC6B5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0083A401-3E0C-4E28-B47B-C29B361D24EA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC074C3A-740B-4E56-9624-BBB853739239}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3FCCEB37-128C-49ED-A473-AD12A03371A2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A8B0A296-5218-4001-A7F2-B6A8722FBCA0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{77B109F7-DC88-4FEB-9D91-6F7398639D37}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{475CCE8F-4412-401A-98EF-659F3B8803F6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EA715801-9F43-4B68-98F3-9CE39289691D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{97834201-0265-4B12-A050-DFC48A195ECA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{22B5793B-DC76-4265-B9C9-FDE78F760021}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{56F4252B-C609-4721-A53F-88D1F69843F0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{50CF157D-01DC-4D1B-A1FD-499D54922796}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9245F2C4-E6E3-455B-89BB-1B259DD762C8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9ECB3684-5FBD-49B4-AAC1-3322DEEFFB45}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7746,7 +7746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2350D8A-EEE3-4AAA-8420-2408B96178C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D53198-784D-44AD-8988-784AE2EE12EB}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9009,17 +9009,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B2183730-AC6B-40B9-A8E3-FB878E3BB221}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1257D773-78C9-4A2D-A68D-58C1DEBCF94E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{713872C0-09F0-4CAD-BB62-AEC13E2E3D59}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{02CEBD9F-EB70-4AAA-A783-17264DB6251C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D5D6ADF0-0E79-4A1F-9360-0D2F5FE16295}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{10D7F0DF-5BC2-4CCC-B024-6D8174AFCD86}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{20BEDD0C-74A2-4CED-822D-AE007A8FC7FE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{09DE48CE-963B-4D81-ACE1-09A640E11D5F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1214EBF4-F34D-4423-A081-813BCC18A113}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{09E7C21A-630A-4B49-A769-75997D4740F5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D01719E7-6D18-4DB2-9ABD-06B5964D8338}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AFD146B2-1E9D-49FD-AC3C-24217991B84F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{43986DD9-7F9E-42EE-BDB6-3C33E1C9BA99}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CF4F6B0A-E6DB-4BC3-87C6-9B9710D8E24C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B58109E3-74A6-44DA-9388-85232E345BF0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7CC44BDE-1A24-4B84-8E4F-453AC4369D10}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6FFC2077-206D-4A31-A965-1242006D8018}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CA776541-8C10-4349-826A-6BBD3EC1679B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6AFD25DB-BB18-422A-857A-D75B9B95CF94}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{73215C95-43D4-407C-9218-64C1E75AE069}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6EDFA317-6632-4BFF-84ED-28A795E2435B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{754F4F56-1B8E-45F5-9222-486BDBB0D115}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9032,7 +9032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8DC9E7-FEDE-47EE-8922-DF6CB20BFE47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F545680E-89F4-473D-BD1A-94E28969E064}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10295,17 +10295,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7897C5A2-7AD3-401D-B214-EE76ACC61AE7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57052275-B5E8-4051-B96A-CD6248BAE22A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2FC8C967-196F-4F37-AA5C-A2D250A56547}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{92E9DB80-6D6F-449D-9C0F-EEB4EB217EAD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{935CE700-8BD1-4FF0-938F-6AB813405DE0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{55FD48EB-984B-45FA-B24A-0B63F7329066}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3691B0F8-7825-4501-9F8B-2D72F0D31DFE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{85D96595-0009-4AAA-BB12-9A72F1E83CA3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5AACE8FF-944A-4D23-86B7-F263DBCA3AC3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9F6D290F-3DE8-448A-AE5A-1DDDE0C1F996}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{135CB00B-F1DD-4D25-8E19-61284F19A9F4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CAA2D233-CFE6-4E4F-9C1E-CB152D9DFEAE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C108AC16-0795-4AEC-982B-51108990F174}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{542E53C7-A004-4232-9660-763AE48828E4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3F562E40-776C-442A-A55D-5E86017E901F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BD35B325-CFEB-4CAD-9BD7-CB174AA5B5ED}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E6878C31-B6A1-41C0-B09A-48ECF3935F20}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9CDFB3C1-3650-4654-9F34-D0F8C4A8F980}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F22969BF-2337-42F1-B685-D5805B0DFAD5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{625D97F4-E68E-444B-964B-2CDBA3478886}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C130BC0B-51EF-493E-9004-544053D74240}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DBF71B06-9D03-4929-8242-02B7D1CE6FAF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10318,7 +10318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E893C1D-115B-4105-98CD-881F05A77778}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FA84EA-2ADA-4CE5-AF8B-7492E7D799D4}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11577,17 +11577,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2B0296D2-28E3-44DD-B1A2-C769591A99F4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4BB531BC-1549-428C-8C3C-060F16CD35B2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4F7DE385-291C-4F90-A318-F9CE1BAF6FBA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{90F78301-B137-43E1-A789-05F6B755CC50}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{69F128A0-C7CB-4516-9E9B-7E3582607E82}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1D00FF32-8BB7-49B2-AA36-E6C5094BF8AF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D6956EC6-0C48-4E3A-9211-4D3BAD376251}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6B118380-A1AB-4DB8-AD9A-366453741C8E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CBCB7522-5AD2-4D3B-9672-A18BCBF77C1D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E99755A3-15CD-4984-9062-5C1C1B08EB35}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{94722A19-08B5-4D2E-9511-38B9A636DAAB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A51B984-C069-4E48-8938-6D526A793D50}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BE595569-2062-4CD7-A23E-0D0FF8B4B3F7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BCFD71C3-30FA-4090-AE7D-F9104C27553A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C8FA3421-F5B9-4F12-AB37-746C389629A4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DE51B6B3-C2E0-41B7-AE90-E014AD5EF3CC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{14865D50-96F7-47F1-9C54-5DD41DE20788}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{070DA074-8D94-489A-9DB7-73FFEADE5357}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{89B51F09-819C-432E-B471-4CCF997A5A9F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F40C503F-DDDD-49BA-8160-75EFE02F0E00}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B11C501A-5CC3-424C-A1A0-A1F0FEA973EA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF427F7D-293C-4D3A-B8FF-9D2A8AB18955}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11600,7 +11600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5D8716-A0BB-450C-86AB-8C5D9DDF8F78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8C62BD-5F4C-4560-A120-647BD5AD30ED}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12859,17 +12859,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E7FB7052-5278-4406-9844-55FBA9F79D55}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F01E7B42-F197-49F4-8E21-DC9C68A886F4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{59F0DD39-A0A6-433A-970C-A363A13D91BC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1D2679B9-97D6-4892-8C41-B4E576086A33}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE63F5FD-C8A5-4469-AD5E-22B97F13DAA3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{67B1CC30-5A10-4174-8FD6-76C34BC5E718}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B84D1FD9-85BE-44E1-88A9-56813E406F13}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9DF5FD7B-4687-49DD-B386-78A5A54D79BF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{47424152-9459-4B20-A032-9F32E26A5929}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{904BBE73-299D-43FC-9290-BB46FAA7DB8E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{144F17DC-ED51-47E1-B90E-1D215CCC714E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{87E98553-C86C-45C1-A626-5C9B12369DAD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0BEC85B0-5B47-4BC3-A4E6-11BAC2BCC60A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{477544B5-665C-4E83-91E6-F9CA7118B8C0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{74FD981D-C7D0-47AC-A3FB-5939016BAF8C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{13F054D6-95D8-4B39-B42F-C165956E2EDA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{637680D5-A3B6-4F42-A712-48BD756B90B6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B006F13-5FF6-49E6-9D3D-07B083CD63A5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7118EC4C-B57C-417B-8004-03882F585CF9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1FE83D73-A5A4-4E0F-860E-BFDAF4C77F52}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6C9314B5-8F88-4CAF-BBBC-59A15EA417DE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7BFDAE80-2B5F-4B72-83CF-611F79496D5B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12882,7 +12882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D0A077-0473-4EB2-8BC5-0A51A2D83E6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27DF5323-D5A3-4FBB-84AE-4B051D02B892}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14141,17 +14141,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{729DB5C6-D310-4301-BA1A-3A0542BA324F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7B60C01D-5EB1-4F9A-9D8A-95299F91DC3E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{74D295C2-7388-44A6-A742-08E5933269EA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{82763379-395D-460D-9824-DFC8073E1546}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C4D3D73D-C79E-4FD2-972F-CDF4341CB98E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{58A8910F-A3BB-4669-86E3-3C9687E66AFD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{99436DCC-3E60-49DD-B5EE-AFA0B6E0FBBA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3AAED72D-70F8-4BAE-802F-B112795A87DB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5FF37188-B635-4E11-8767-A89434A08B0E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{436B5DB7-CC35-41F5-810B-749824E2FCF9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D1B49184-A53C-4F12-8B8D-AAA5CCC24A82}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9587A816-E5E9-4638-BE3E-7C90823BD644}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{76E6C6DB-4086-4C73-9B27-90CD9DAFF238}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{68980B25-CC80-496B-9CEF-415979720D99}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{83E4C27C-D4BE-451B-9B3F-10B189CE8FB8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8AAC4513-29EF-4B72-B3E1-62207F0C0733}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{899BC79E-CB4D-4FF7-A23C-0A4AE8EBDAF7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{21D74650-F52C-4852-816E-6302E26D11AD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{99233B78-D7A9-45E9-9A9D-239AAAFE6C1B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{850FB43B-0F4B-4E8E-A9EE-2B50437750AC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6E0B2C97-D063-4063-8623-3FB15FB04E86}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6E5F5177-4AFB-4564-BCD0-EA90B1A5E2E3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14164,7 +14164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F4E866-AF5D-44A1-BF13-38325C0C9974}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7895EF14-A4E7-4D34-BA9C-76CE849255E6}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15423,17 +15423,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D0D175B3-78D7-4961-AD54-A02323E0409C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9BFF97D9-141D-45C9-9B54-E88F96EDC6C4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5E80FB5D-80A9-44E6-848C-2E5C5C7FF9D9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CD52C4FD-D2BF-4296-800D-9F7B65251AD2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A40826F8-D8AF-4FD2-B1A2-B61AA7E15023}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EA73ECAA-7F36-48B0-9A18-BFE85A71952A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3D147D8F-2D28-4D8B-8D15-5946556A17FE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B3765298-D285-4593-ADFF-A29D3BA00C86}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{88DADDA1-C3DE-4DCD-AFFA-9867A21F6785}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{84717D51-2CD4-487B-AE0C-F37355D45ED9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{19A3493C-F7E8-4076-871A-E718ACBA93C4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{32AEA7B3-9635-4958-83F2-AE112BAB888E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0BF3051C-66DB-4EDA-BBD3-A680C1BE685B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0A322310-BC22-43B7-8F61-89A22B9B6233}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{203CF1A5-C52E-4A2E-A4EE-DA81D1477D4C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{41CAAF0B-8453-4619-9A2F-16357753ACF3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DC477F52-2049-4B77-A61A-ED95ED5AE820}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4C626084-0287-4747-8FF9-04E6A08A14BD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{580A5D07-88E1-4B13-B0FF-803B6589048F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{41EA2A7A-3EA6-4180-B05C-A257974A5C12}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{414005EE-1283-41E1-92E2-8950F0D42408}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0F9DE94F-0B82-410A-AD83-65AD95257B8B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15446,7 +15446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94F6E31-4869-4068-B57E-7E09945EC977}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E131AE-9B1B-42A8-80BC-33C93E1ADC53}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16705,17 +16705,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3DB75BE0-C155-40B5-A547-3A36B10DC8D2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{981E8A00-0492-43DC-9AC6-B33590406F4A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F0437B2D-003E-4DFB-9D78-75B1BCFB23A6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A4A57F9D-5BBA-4B47-8FCE-E1855DD4E2C9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{96D6C3F6-9E51-4EC4-A7F5-AC323152F478}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{48A43F8C-77B4-4522-9A4E-62EE1809EFBC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9DDA2524-0147-4C18-9F16-5CEC59916DC2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{32DCD678-3B4E-401E-990B-5DAFF2DCCFF6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{384EEB96-809A-4D62-9E7B-764FA35EC25E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8BE8BB83-EDA0-4852-80E0-148855D72E3E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{99BDA643-9E6F-4C31-96BD-A0CA367A255A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B05A93E6-50D3-4402-8EBE-57340803060C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E10E4300-0563-44A9-B730-42B623257314}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DD6FCA34-B414-4468-883A-3A35966617FF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D0F04696-36CF-4A15-ABAB-559BB1A6B823}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D1FD6605-BDF3-44AF-A134-76D960755AA1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8391F18A-9B8E-416A-B3BE-7ABFA973E64A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A9BA965B-E93B-4EA0-BD2C-88F671B32500}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FC23CA20-FB2B-4C71-AFAA-9C92B1DB4438}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{063BDB4F-1D2A-409B-A0AC-37A5BE46721F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D96E6725-953C-41A4-B505-A0F87F37B8E4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B744FD74-59BA-4B9D-A235-ED8A9876E033}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
